--- a/03_Materials/finalize_stimuli/el/el_translated_final.xlsx
+++ b/03_Materials/finalize_stimuli/el/el_translated_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinbuchanan/GitHub/Research/2_projects/SPAML/SPAML-PSA/03_Materials/finalize_stimuli/el/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C19A4A2-088A-DD4D-954D-6CB49F0F07F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CD2108-98E5-9848-B227-A3469E6A4FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="-600" windowWidth="25600" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="el_translate" sheetId="1" r:id="rId1"/>
@@ -18328,6 +18328,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -18338,31 +18339,37 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF202124"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="7"/>
       <color rgb="FF202124"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="7"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="7"/>
       <color rgb="FF4D5156"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -18378,6 +18385,7 @@
       <sz val="10"/>
       <color theme="5"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -18678,8 +18686,8 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" topLeftCell="A988" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E997" sqref="E997"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
